--- a/biology/Médecine/Fondation_Yrjö-Jahnsson/Fondation_Yrjö-Jahnsson.xlsx
+++ b/biology/Médecine/Fondation_Yrjö-Jahnsson/Fondation_Yrjö-Jahnsson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fondation_Yrj%C3%B6-Jahnsson</t>
+          <t>Fondation_Yrjö-Jahnsson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fondation Yrjö Jahnsson est une fondation dont l'objectif est de promouvoir la recherche finlandaise en économie et en médecine. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fondation_Yrj%C3%B6-Jahnsson</t>
+          <t>Fondation_Yrjö-Jahnsson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fondation a été créée en 1954 par la juriste Hilma Gabriella Jahnsson (en) (1882-1975), veuve de Yrjö Jahnsson (en) (1877–1936) qui fut professeur d'économie à l'université d'Helsinki.  
 La fondation décerne tous les deux ans le prix Yrjö-Jahnsson avec la European Economic Association et organise les conférences Yrjö Jahnsson.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fondation_Yrj%C3%B6-Jahnsson</t>
+          <t>Fondation_Yrjö-Jahnsson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Conférences Yrjö Jahnsson</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les conférences ont lieu chaque année depuis 1963[1],[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conférences ont lieu chaque année depuis 1963.
 Parmi les conférenciers 10 ont reçu le prix Nobel d'économie.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fondation_Yrj%C3%B6-Jahnsson</t>
+          <t>Fondation_Yrjö-Jahnsson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Prix Yrjö Jahnsson en économie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Yrjö Jahnsson est décerné tous les deux ans à de jeunes économistes européens conjointement par la fondation Yrjö-Jahnsson et par la European Economic Association.
-Les lauréats du prix sont[24],[25]:
+Les lauréats du prix sont,:
 </t>
         </is>
       </c>
